--- a/excel data/THURSDAY.xlsx
+++ b/excel data/THURSDAY.xlsx
@@ -898,7 +898,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>RLN</t>
         </is>
       </c>
       <c r="AW2" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>BJM/TC</t>
+          <t>BJM/TAC</t>
         </is>
       </c>
       <c r="AC5" t="n">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="AO5" t="n">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="AC6" t="n">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="AG6" t="n">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ZL</t>
         </is>
       </c>
       <c r="AK7" t="n">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>INORG</t>
+          <t>SD/MS</t>
         </is>
       </c>
       <c r="AC8" t="n">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>INORG</t>
+          <t>SD/MS</t>
         </is>
       </c>
       <c r="AG8" t="n">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="AO11" t="n">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>(BS/LP/AS)</t>
+          <t>BS/LP/AS</t>
         </is>
       </c>
       <c r="AG23" t="n">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>GN/CK</t>
+          <t>FGN/CK</t>
         </is>
       </c>
       <c r="AC25" t="n">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>GN/CK</t>
+          <t>FGN/CK</t>
         </is>
       </c>
       <c r="AG25" t="n">
